--- a/riskaverse_corrected/results/db/cache_results.xlsx
+++ b/riskaverse_corrected/results/db/cache_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">case id</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">lamda</t>
   </si>
   <si>
+    <t xml:space="preserve">max accessed</t>
+  </si>
+  <si>
     <t xml:space="preserve">hit</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">total miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total accessed</t>
   </si>
   <si>
     <t xml:space="preserve">hit percent</t>
@@ -68,6 +74,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -89,6 +96,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -96,12 +104,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -183,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +208,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -329,10 +343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,7 +354,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,57 +386,67 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">MAX(J4:J19)</f>
+        <v>3259</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>475</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10" t="n">
         <v>864</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>762</v>
       </c>
       <c r="H4" s="3" t="n">
@@ -431,31 +457,35 @@
         <f aca="false">C4+E4+G4</f>
         <v>2101</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="3" t="n">
+        <f aca="false">H4+I4</f>
+        <v>2285</v>
+      </c>
+      <c r="K4" s="11" t="n">
         <f aca="false">H4*100/(I4+H4)</f>
         <v>8.05251641137856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>86</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>349</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>363</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <v>673</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>237</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>304</v>
       </c>
       <c r="H5" s="3" t="n">
@@ -466,31 +496,35 @@
         <f aca="false">C5+E5+G5</f>
         <v>1326</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="3" t="n">
+        <f aca="false">H5+I5</f>
+        <v>2012</v>
+      </c>
+      <c r="K5" s="11" t="n">
         <f aca="false">H5*100/(I5+H5)</f>
         <v>34.0954274353877</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>454</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="10" t="n">
         <v>230</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9" t="n">
         <v>348</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>712</v>
       </c>
       <c r="H6" s="3" t="n">
@@ -501,31 +535,35 @@
         <f aca="false">C6+E6+G6</f>
         <v>1396</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="3" t="n">
+        <f aca="false">H6+I6</f>
+        <v>1931</v>
+      </c>
+      <c r="K6" s="11" t="n">
         <f aca="false">H6*100/(I6+H6)</f>
         <v>27.7058518902123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>628</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="10" t="n">
         <v>465</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>858</v>
       </c>
       <c r="H7" s="3" t="n">
@@ -536,31 +574,35 @@
         <f aca="false">C7+E7+G7</f>
         <v>1951</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="3" t="n">
+        <f aca="false">H7+I7</f>
+        <v>2140</v>
+      </c>
+      <c r="K7" s="11" t="n">
         <f aca="false">H7*100/(I7+H7)</f>
         <v>8.83177570093458</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>319</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <v>606</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>140</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <v>534</v>
       </c>
       <c r="H8" s="3" t="n">
@@ -571,31 +613,35 @@
         <f aca="false">C8+E8+G8</f>
         <v>1459</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="3" t="n">
+        <f aca="false">H8+I8</f>
+        <v>1939</v>
+      </c>
+      <c r="K8" s="11" t="n">
         <f aca="false">H8*100/(I8+H8)</f>
         <v>24.7550283651367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>537</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>103</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <v>670</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="10" t="n">
         <v>365</v>
       </c>
       <c r="H9" s="3" t="n">
@@ -606,31 +652,35 @@
         <f aca="false">C9+E9+G9</f>
         <v>1572</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="3" t="n">
+        <f aca="false">H9+I9</f>
+        <v>1731</v>
+      </c>
+      <c r="K9" s="11" t="n">
         <f aca="false">H9*100/(I9+H9)</f>
         <v>9.18544194107452</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="10" t="n">
         <v>1172</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <v>969</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="10" t="n">
         <v>815</v>
       </c>
       <c r="H10" s="3" t="n">
@@ -641,31 +691,35 @@
         <f aca="false">C10+E10+G10</f>
         <v>2956</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="3" t="n">
+        <f aca="false">H10+I10</f>
+        <v>3259</v>
+      </c>
+      <c r="K10" s="11" t="n">
         <f aca="false">H10*100/(I10+H10)</f>
         <v>9.29733046946916</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>183</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>467</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9" t="n">
         <v>137</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <v>408</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="10" t="n">
         <v>445</v>
       </c>
       <c r="H11" s="3" t="n">
@@ -676,31 +730,35 @@
         <f aca="false">C11+E11+G11</f>
         <v>1320</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="3" t="n">
+        <f aca="false">H11+I11</f>
+        <v>1738</v>
+      </c>
+      <c r="K11" s="11" t="n">
         <f aca="false">H11*100/(I11+H11)</f>
         <v>24.0506329113924</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>262</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>697</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="10" t="n">
         <v>186</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9" t="n">
         <v>99</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="10" t="n">
         <v>206</v>
       </c>
       <c r="H12" s="3" t="n">
@@ -711,31 +769,35 @@
         <f aca="false">C12+E12+G12</f>
         <v>1089</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="3" t="n">
+        <f aca="false">H12+I12</f>
+        <v>1512</v>
+      </c>
+      <c r="K12" s="11" t="n">
         <f aca="false">H12*100/(I12+H12)</f>
         <v>27.9761904761905</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>909</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="10" t="n">
         <v>394</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <v>129</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="10" t="n">
         <v>614</v>
       </c>
       <c r="H13" s="3" t="n">
@@ -746,31 +808,35 @@
         <f aca="false">C13+E13+G13</f>
         <v>1917</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="3" t="n">
+        <f aca="false">H13+I13</f>
+        <v>2138</v>
+      </c>
+      <c r="K13" s="11" t="n">
         <f aca="false">H13*100/(I13+H13)</f>
         <v>10.3367633302152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>821</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="10" t="n">
         <v>685</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="10" t="n">
         <v>616</v>
       </c>
       <c r="H14" s="3" t="n">
@@ -781,31 +847,35 @@
         <f aca="false">C14+E14+G14</f>
         <v>2122</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="3" t="n">
+        <f aca="false">H14+I14</f>
+        <v>2294</v>
+      </c>
+      <c r="K14" s="11" t="n">
         <f aca="false">H14*100/(I14+H14)</f>
         <v>7.49782040104621</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>506</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>732</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <v>191</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="10" t="n">
         <v>601</v>
       </c>
       <c r="H15" s="3" t="n">
@@ -816,31 +886,35 @@
         <f aca="false">C15+E15+G15</f>
         <v>1524</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="3" t="n">
+        <f aca="false">H15+I15</f>
+        <v>2456</v>
+      </c>
+      <c r="K15" s="11" t="n">
         <f aca="false">H15*100/(I15+H15)</f>
         <v>37.9478827361563</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>117</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <v>947</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="10" t="n">
         <v>480</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <v>186</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="10" t="n">
         <v>1328</v>
       </c>
       <c r="H16" s="3" t="n">
@@ -851,31 +925,35 @@
         <f aca="false">C16+E16+G16</f>
         <v>2755</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="3" t="n">
+        <f aca="false">H16+I16</f>
+        <v>3119</v>
+      </c>
+      <c r="K16" s="11" t="n">
         <f aca="false">H16*100/(I16+H16)</f>
         <v>11.670407181789</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>118</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>332</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <v>666</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="10" t="n">
         <v>347</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9" t="n">
         <v>113</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="10" t="n">
         <v>329</v>
       </c>
       <c r="H17" s="3" t="n">
@@ -886,31 +964,35 @@
         <f aca="false">C17+E17+G17</f>
         <v>1342</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="3" t="n">
+        <f aca="false">H17+I17</f>
+        <v>1889</v>
+      </c>
+      <c r="K17" s="11" t="n">
         <f aca="false">H17*100/(I17+H17)</f>
         <v>28.9571201694018</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>119</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <v>426</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>403</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="10" t="n">
         <v>665</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="10" t="n">
         <v>482</v>
       </c>
       <c r="H18" s="3" t="n">
@@ -921,31 +1003,35 @@
         <f aca="false">C18+E18+G18</f>
         <v>1573</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="3" t="n">
+        <f aca="false">H18+I18</f>
+        <v>2263</v>
+      </c>
+      <c r="K18" s="11" t="n">
         <f aca="false">H18*100/(I18+H18)</f>
         <v>30.4904993371631</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>615</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>110</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="10" t="n">
         <v>568</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="9" t="n">
         <v>254</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="10" t="n">
         <v>1404</v>
       </c>
       <c r="H19" s="3" t="n">
@@ -956,111 +1042,117 @@
         <f aca="false">C19+E19+G19</f>
         <v>2587</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="3" t="n">
+        <f aca="false">H19+I19</f>
+        <v>3010</v>
+      </c>
+      <c r="K19" s="11" t="n">
         <f aca="false">H19*100/(I19+H19)</f>
         <v>14.0531561461794</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="n">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13" t="n">
         <f aca="false">SUM(B4:B19)</f>
         <v>2294</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="13" t="n">
         <f aca="false">SUM(C4:C19)</f>
         <v>10214</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="13" t="n">
         <f aca="false">SUM(D4:D19)</f>
         <v>2042</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="13" t="n">
         <f aca="false">SUM(E4:E19)</f>
         <v>8401</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="13" t="n">
         <f aca="false">SUM(F4:F19)</f>
         <v>2390</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="13" t="n">
         <f aca="false">SUM(G4:G19)</f>
         <v>10375</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="13" t="n">
         <f aca="false">SUM(H4:H19)</f>
         <v>6726</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="13" t="n">
         <f aca="false">SUM(I4:I19)</f>
         <v>28990</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="14" t="n">
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="15" t="n">
         <f aca="false">AVERAGE(B4:B19)</f>
         <v>143.375</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="15" t="n">
         <f aca="false">AVERAGE(C4:C19)</f>
         <v>638.375</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="15" t="n">
         <f aca="false">AVERAGE(D4:D19)</f>
         <v>127.625</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="15" t="n">
         <f aca="false">AVERAGE(E4:E19)</f>
         <v>525.0625</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="15" t="n">
         <f aca="false">AVERAGE(F4:F19)</f>
         <v>149.375</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="15" t="n">
         <f aca="false">AVERAGE(G4:G19)</f>
         <v>648.4375</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="15" t="n">
         <f aca="false">AVERAGE(H4:H19)</f>
         <v>420.375</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="15" t="n">
         <f aca="false">AVERAGE(I4:I19)</f>
         <v>1811.875</v>
       </c>
-      <c r="J21" s="14" t="n">
-        <f aca="false">AVERAGE(J4:J19)</f>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="n">
+        <f aca="false">AVERAGE(K4:K19)</f>
         <v>19.6814903064455</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/riskaverse_corrected/results/db/cache_results.xlsx
+++ b/riskaverse_corrected/results/db/cache_results.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
